--- a/wallet-enterprise-configurations/issuer/dataset/por-dataset.xlsx
+++ b/wallet-enterprise-configurations/issuer/dataset/por-dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koukoularism/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorioskatrakazas/Documents/wallet-ecosystem/wallet-enterprise-configurations/issuer/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE0ADDB-B707-1A49-9E48-D9ECFCD87040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD1297-03EC-1D41-A429-35693AC6CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1280" windowWidth="27120" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="27120" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POR" sheetId="3" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>full_powers</t>
   </si>
   <si>
-    <t>effective_from_date</t>
-  </si>
-  <si>
-    <t>effective_until_date</t>
-  </si>
-  <si>
     <t>eService</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>Emily</t>
+  </si>
+  <si>
+    <t>effective_from</t>
+  </si>
+  <si>
+    <t>effective_until</t>
   </si>
 </sst>
 </file>
@@ -338,8 +338,8 @@
     <tableColumn id="2" xr3:uid="{DF0CF847-945D-1D43-99C4-51DD794A3901}" name="legal_person_identifier"/>
     <tableColumn id="3" xr3:uid="{CF05453B-F602-184C-B673-866B15C80AD9}" name="legal_name"/>
     <tableColumn id="4" xr3:uid="{D0DB4BF0-729F-CB48-9C06-214082C54E0A}" name="full_powers"/>
-    <tableColumn id="5" xr3:uid="{2F248223-92AE-AB41-90D4-8EBCB9265552}" name="effective_from_date"/>
-    <tableColumn id="6" xr3:uid="{1290CE99-E8DE-9F43-A0D5-0D6D52B53A6B}" name="effective_until_date"/>
+    <tableColumn id="5" xr3:uid="{2F248223-92AE-AB41-90D4-8EBCB9265552}" name="effective_from"/>
+    <tableColumn id="6" xr3:uid="{1290CE99-E8DE-9F43-A0D5-0D6D52B53A6B}" name="effective_until"/>
     <tableColumn id="7" xr3:uid="{8C8D43D4-2994-4843-B1D8-CE741D9A82AE}" name="eService"/>
     <tableColumn id="8" xr3:uid="{86895175-DBFC-514B-884C-81493BC1AFF5}" name="family_name" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{E609C17C-6ADC-B744-89EC-9B664156D765}" name="given_name" dataDxfId="1"/>
@@ -669,10 +669,21 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -688,22 +699,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -711,26 +722,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" s="11">
         <v>33161</v>
@@ -741,28 +752,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="11">
         <v>33161</v>

--- a/wallet-enterprise-configurations/issuer/dataset/por-dataset.xlsx
+++ b/wallet-enterprise-configurations/issuer/dataset/por-dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t xml:space="preserve">pid_id</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">2028-01-01T00:00:00Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Registration of a business</t>
+  </si>
+  <si>
     <t xml:space="preserve">PID:00001</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">2029-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration of a business</t>
   </si>
   <si>
     <t xml:space="preserve">PID:00002</t>
@@ -205,14 +205,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
@@ -246,52 +246,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="15" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,8 +319,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -345,138 +349,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="10" t="n">
         <v>33161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="10" t="n">
         <v>33161</v>
       </c>
     </row>
